--- a/PAA/params.xlsx
+++ b/PAA/params.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
+    <sheet name="pdb file" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'pdb file'!$C$1:$C$151</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="162">
   <si>
     <t>atom number</t>
   </si>
@@ -35,19 +39,490 @@
   </si>
   <si>
     <t>r*</t>
+  </si>
+  <si>
+    <t>ATOM</t>
+  </si>
+  <si>
+    <t>OFS</t>
+  </si>
+  <si>
+    <t>PDB</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>O1-</t>
+  </si>
+  <si>
+    <t>CFR</t>
+  </si>
+  <si>
+    <t>OFT</t>
+  </si>
+  <si>
+    <t>CFQ</t>
+  </si>
+  <si>
+    <t>CFP</t>
+  </si>
+  <si>
+    <t>CFK</t>
+  </si>
+  <si>
+    <t>CFL</t>
+  </si>
+  <si>
+    <t>CFM</t>
+  </si>
+  <si>
+    <t>OFO</t>
+  </si>
+  <si>
+    <t>OFN</t>
+  </si>
+  <si>
+    <t>CFF</t>
+  </si>
+  <si>
+    <t>CFG</t>
+  </si>
+  <si>
+    <t>CFH</t>
+  </si>
+  <si>
+    <t>OFJ</t>
+  </si>
+  <si>
+    <t>OFI</t>
+  </si>
+  <si>
+    <t>CFA</t>
+  </si>
+  <si>
+    <t>CFB</t>
+  </si>
+  <si>
+    <t>CFC</t>
+  </si>
+  <si>
+    <t>OFE</t>
+  </si>
+  <si>
+    <t>OFD</t>
+  </si>
+  <si>
+    <t>CEV</t>
+  </si>
+  <si>
+    <t>CEW</t>
+  </si>
+  <si>
+    <t>CEX</t>
+  </si>
+  <si>
+    <t>OEZ</t>
+  </si>
+  <si>
+    <t>OEY</t>
+  </si>
+  <si>
+    <t>CEQ</t>
+  </si>
+  <si>
+    <t>CER</t>
+  </si>
+  <si>
+    <t>CES</t>
+  </si>
+  <si>
+    <t>OEU</t>
+  </si>
+  <si>
+    <t>OET</t>
+  </si>
+  <si>
+    <t>CEL</t>
+  </si>
+  <si>
+    <t>CEM</t>
+  </si>
+  <si>
+    <t>CEN</t>
+  </si>
+  <si>
+    <t>OEP</t>
+  </si>
+  <si>
+    <t>OEO</t>
+  </si>
+  <si>
+    <t>CEG</t>
+  </si>
+  <si>
+    <t>CEH</t>
+  </si>
+  <si>
+    <t>CEI</t>
+  </si>
+  <si>
+    <t>OEK</t>
+  </si>
+  <si>
+    <t>OEJ</t>
+  </si>
+  <si>
+    <t>CEB</t>
+  </si>
+  <si>
+    <t>CEC</t>
+  </si>
+  <si>
+    <t>CED</t>
+  </si>
+  <si>
+    <t>OEF</t>
+  </si>
+  <si>
+    <t>OEE</t>
+  </si>
+  <si>
+    <t>CDW</t>
+  </si>
+  <si>
+    <t>CDX</t>
+  </si>
+  <si>
+    <t>CDY</t>
+  </si>
+  <si>
+    <t>OEA</t>
+  </si>
+  <si>
+    <t>ODZ</t>
+  </si>
+  <si>
+    <t>CDR</t>
+  </si>
+  <si>
+    <t>CDS</t>
+  </si>
+  <si>
+    <t>CDT</t>
+  </si>
+  <si>
+    <t>ODV</t>
+  </si>
+  <si>
+    <t>ODU</t>
+  </si>
+  <si>
+    <t>CDM</t>
+  </si>
+  <si>
+    <t>CDN</t>
+  </si>
+  <si>
+    <t>CDO</t>
+  </si>
+  <si>
+    <t>ODQ</t>
+  </si>
+  <si>
+    <t>ODP</t>
+  </si>
+  <si>
+    <t>CDH</t>
+  </si>
+  <si>
+    <t>CDI</t>
+  </si>
+  <si>
+    <t>CDJ</t>
+  </si>
+  <si>
+    <t>ODL</t>
+  </si>
+  <si>
+    <t>ODK</t>
+  </si>
+  <si>
+    <t>CDC</t>
+  </si>
+  <si>
+    <t>CDD</t>
+  </si>
+  <si>
+    <t>CDE</t>
+  </si>
+  <si>
+    <t>ODG</t>
+  </si>
+  <si>
+    <t>ODF</t>
+  </si>
+  <si>
+    <t>CCX</t>
+  </si>
+  <si>
+    <t>CCY</t>
+  </si>
+  <si>
+    <t>CCZ</t>
+  </si>
+  <si>
+    <t>ODB</t>
+  </si>
+  <si>
+    <t>ODA</t>
+  </si>
+  <si>
+    <t>CCS</t>
+  </si>
+  <si>
+    <t>CCT</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>OCW</t>
+  </si>
+  <si>
+    <t>OCV</t>
+  </si>
+  <si>
+    <t>CCN</t>
+  </si>
+  <si>
+    <t>CCO</t>
+  </si>
+  <si>
+    <t>CCP</t>
+  </si>
+  <si>
+    <t>OCR</t>
+  </si>
+  <si>
+    <t>OCQ</t>
+  </si>
+  <si>
+    <t>CCI</t>
+  </si>
+  <si>
+    <t>CCJ</t>
+  </si>
+  <si>
+    <t>CCK</t>
+  </si>
+  <si>
+    <t>OCM</t>
+  </si>
+  <si>
+    <t>OCL</t>
+  </si>
+  <si>
+    <t>CCD</t>
+  </si>
+  <si>
+    <t>CCE</t>
+  </si>
+  <si>
+    <t>CCF</t>
+  </si>
+  <si>
+    <t>OCH</t>
+  </si>
+  <si>
+    <t>OCG</t>
+  </si>
+  <si>
+    <t>CBY</t>
+  </si>
+  <si>
+    <t>CBZ</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>OCC</t>
+  </si>
+  <si>
+    <t>OCB</t>
+  </si>
+  <si>
+    <t>CBT</t>
+  </si>
+  <si>
+    <t>CBU</t>
+  </si>
+  <si>
+    <t>CBV</t>
+  </si>
+  <si>
+    <t>OBX</t>
+  </si>
+  <si>
+    <t>OBW</t>
+  </si>
+  <si>
+    <t>CBO</t>
+  </si>
+  <si>
+    <t>CBP</t>
+  </si>
+  <si>
+    <t>CBQ</t>
+  </si>
+  <si>
+    <t>OBS</t>
+  </si>
+  <si>
+    <t>OBR</t>
+  </si>
+  <si>
+    <t>CBJ</t>
+  </si>
+  <si>
+    <t>CBK</t>
+  </si>
+  <si>
+    <t>CBL</t>
+  </si>
+  <si>
+    <t>OBN</t>
+  </si>
+  <si>
+    <t>OBM</t>
+  </si>
+  <si>
+    <t>CBE</t>
+  </si>
+  <si>
+    <t>CBF</t>
+  </si>
+  <si>
+    <t>CBG</t>
+  </si>
+  <si>
+    <t>OBI</t>
+  </si>
+  <si>
+    <t>OBH</t>
+  </si>
+  <si>
+    <t>CAZ</t>
+  </si>
+  <si>
+    <t>CBA</t>
+  </si>
+  <si>
+    <t>CBB</t>
+  </si>
+  <si>
+    <t>OBD</t>
+  </si>
+  <si>
+    <t>OBC</t>
+  </si>
+  <si>
+    <t>CAU</t>
+  </si>
+  <si>
+    <t>CAV</t>
+  </si>
+  <si>
+    <t>CAW</t>
+  </si>
+  <si>
+    <t>OAY</t>
+  </si>
+  <si>
+    <t>OAX</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>CAQ</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>OAT</t>
+  </si>
+  <si>
+    <t>OAS</t>
+  </si>
+  <si>
+    <t>CAK</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>OAO</t>
+  </si>
+  <si>
+    <t>OAN</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>CAG</t>
+  </si>
+  <si>
+    <t>CAH</t>
+  </si>
+  <si>
+    <t>OAJ</t>
+  </si>
+  <si>
+    <t>OAI</t>
+  </si>
+  <si>
+    <t>CAA</t>
+  </si>
+  <si>
+    <t>CAB</t>
+  </si>
+  <si>
+    <t>CAC</t>
+  </si>
+  <si>
+    <t>OAE</t>
+  </si>
+  <si>
+    <t>OAD</t>
+  </si>
+  <si>
+    <t>Residue name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,8 +545,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -832,4 +1308,5730 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>-56.47</v>
+      </c>
+      <c r="H2">
+        <v>44.2</v>
+      </c>
+      <c r="I2">
+        <v>-18.03</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>-56.37</v>
+      </c>
+      <c r="H3">
+        <v>43</v>
+      </c>
+      <c r="I3">
+        <v>-18.350000000000001</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>-56.36</v>
+      </c>
+      <c r="H4">
+        <v>42.55</v>
+      </c>
+      <c r="I4">
+        <v>-19.510000000000002</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>-56.23</v>
+      </c>
+      <c r="H5">
+        <v>41.99</v>
+      </c>
+      <c r="I5">
+        <v>-17.190000000000001</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>-57.62</v>
+      </c>
+      <c r="H6">
+        <v>41.49</v>
+      </c>
+      <c r="I6">
+        <v>-16.79</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>-55.32</v>
+      </c>
+      <c r="H7">
+        <v>40.78</v>
+      </c>
+      <c r="I7">
+        <v>-17.48</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>-53.81</v>
+      </c>
+      <c r="H8">
+        <v>41.08</v>
+      </c>
+      <c r="I8">
+        <v>-17.440000000000001</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>-53.45</v>
+      </c>
+      <c r="H9">
+        <v>42.11</v>
+      </c>
+      <c r="I9">
+        <v>-18.53</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>-53.38</v>
+      </c>
+      <c r="H10">
+        <v>41.71</v>
+      </c>
+      <c r="I10">
+        <v>-19.71</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>-53.36</v>
+      </c>
+      <c r="H11">
+        <v>43.29</v>
+      </c>
+      <c r="I11">
+        <v>-18.149999999999999</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>-53.04</v>
+      </c>
+      <c r="H12">
+        <v>39.74</v>
+      </c>
+      <c r="I12">
+        <v>-17.59</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>-51.51</v>
+      </c>
+      <c r="H13">
+        <v>39.81</v>
+      </c>
+      <c r="I13">
+        <v>-17.38</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>-50.88</v>
+      </c>
+      <c r="H14">
+        <v>40.619999999999997</v>
+      </c>
+      <c r="I14">
+        <v>-18.52</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>-50.87</v>
+      </c>
+      <c r="H15">
+        <v>40.11</v>
+      </c>
+      <c r="I15">
+        <v>-19.670000000000002</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>-50.52</v>
+      </c>
+      <c r="H16">
+        <v>41.78</v>
+      </c>
+      <c r="I16">
+        <v>-18.23</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>-50.9</v>
+      </c>
+      <c r="H17">
+        <v>38.39</v>
+      </c>
+      <c r="I17">
+        <v>-17.32</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>-49.47</v>
+      </c>
+      <c r="H18">
+        <v>38.28</v>
+      </c>
+      <c r="I18">
+        <v>-16.73</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>-48.5</v>
+      </c>
+      <c r="H19">
+        <v>39.39</v>
+      </c>
+      <c r="I19">
+        <v>-17.149999999999999</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>-48.3</v>
+      </c>
+      <c r="H20">
+        <v>39.54</v>
+      </c>
+      <c r="I20">
+        <v>-18.38</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="L20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>-48.09</v>
+      </c>
+      <c r="H21">
+        <v>40.14</v>
+      </c>
+      <c r="I21">
+        <v>-16.239999999999998</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>-48.92</v>
+      </c>
+      <c r="H22">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="I22">
+        <v>-16.95</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>-47.39</v>
+      </c>
+      <c r="H23">
+        <v>36.68</v>
+      </c>
+      <c r="I23">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>-46.85</v>
+      </c>
+      <c r="H24">
+        <v>36.9</v>
+      </c>
+      <c r="I24">
+        <v>-18.329999999999998</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>-47.15</v>
+      </c>
+      <c r="H25">
+        <v>36.07</v>
+      </c>
+      <c r="I25">
+        <v>-19.21</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>-46.16</v>
+      </c>
+      <c r="H26">
+        <v>37.93</v>
+      </c>
+      <c r="I26">
+        <v>-18.5</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>-46.93</v>
+      </c>
+      <c r="H27">
+        <v>35.28</v>
+      </c>
+      <c r="I27">
+        <v>-16.43</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>-45.49</v>
+      </c>
+      <c r="H28">
+        <v>35.18</v>
+      </c>
+      <c r="I28">
+        <v>-15.85</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>-44.6</v>
+      </c>
+      <c r="H29">
+        <v>36.43</v>
+      </c>
+      <c r="I29">
+        <v>-16.04</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>20</v>
+      </c>
+      <c r="L29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>-44.16</v>
+      </c>
+      <c r="H30">
+        <v>36.64</v>
+      </c>
+      <c r="I30">
+        <v>-17.190000000000001</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>20</v>
+      </c>
+      <c r="L30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>-44.52</v>
+      </c>
+      <c r="H31">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I31">
+        <v>-15.06</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>20</v>
+      </c>
+      <c r="L31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>-44.84</v>
+      </c>
+      <c r="H32">
+        <v>33.83</v>
+      </c>
+      <c r="I32">
+        <v>-16.23</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>-43.3</v>
+      </c>
+      <c r="H33">
+        <v>33.76</v>
+      </c>
+      <c r="I33">
+        <v>-16.13</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>20</v>
+      </c>
+      <c r="L33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>-42.71</v>
+      </c>
+      <c r="H34">
+        <v>34.15</v>
+      </c>
+      <c r="I34">
+        <v>-17.510000000000002</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>20</v>
+      </c>
+      <c r="L34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>-43.03</v>
+      </c>
+      <c r="H35">
+        <v>33.46</v>
+      </c>
+      <c r="I35">
+        <v>-18.5</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>20</v>
+      </c>
+      <c r="L35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>-41.95</v>
+      </c>
+      <c r="H36">
+        <v>35.14</v>
+      </c>
+      <c r="I36">
+        <v>-17.52</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>20</v>
+      </c>
+      <c r="L36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>-42.78</v>
+      </c>
+      <c r="H37">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="I37">
+        <v>-15.81</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>20</v>
+      </c>
+      <c r="L37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>-41.46</v>
+      </c>
+      <c r="H38">
+        <v>32.270000000000003</v>
+      </c>
+      <c r="I38">
+        <v>-14.99</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>20</v>
+      </c>
+      <c r="L38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>-40.56</v>
+      </c>
+      <c r="H39">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="I39">
+        <v>-15.01</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>20</v>
+      </c>
+      <c r="L39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>-40.04</v>
+      </c>
+      <c r="H40">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="I40">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>20</v>
+      </c>
+      <c r="L40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>-40.5</v>
+      </c>
+      <c r="H41">
+        <v>34.17</v>
+      </c>
+      <c r="I41">
+        <v>-13.95</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>20</v>
+      </c>
+      <c r="L41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>-40.729999999999997</v>
+      </c>
+      <c r="H42">
+        <v>30.91</v>
+      </c>
+      <c r="I42">
+        <v>-15.22</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>20</v>
+      </c>
+      <c r="L42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>-39.24</v>
+      </c>
+      <c r="H43">
+        <v>30.96</v>
+      </c>
+      <c r="I43">
+        <v>-15.61</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>20</v>
+      </c>
+      <c r="L43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>-39.119999999999997</v>
+      </c>
+      <c r="H44">
+        <v>31.28</v>
+      </c>
+      <c r="I44">
+        <v>-17.11</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>20</v>
+      </c>
+      <c r="L44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>-39.79</v>
+      </c>
+      <c r="H45">
+        <v>30.59</v>
+      </c>
+      <c r="I45">
+        <v>-17.91</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>20</v>
+      </c>
+      <c r="L45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="H46">
+        <v>32.159999999999997</v>
+      </c>
+      <c r="I46">
+        <v>-17.43</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>20</v>
+      </c>
+      <c r="L46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>-38.51</v>
+      </c>
+      <c r="H47">
+        <v>29.62</v>
+      </c>
+      <c r="I47">
+        <v>-15.34</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>20</v>
+      </c>
+      <c r="L47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>-37.01</v>
+      </c>
+      <c r="H48">
+        <v>29.73</v>
+      </c>
+      <c r="I48">
+        <v>-14.99</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>20</v>
+      </c>
+      <c r="L48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="H49">
+        <v>30.85</v>
+      </c>
+      <c r="I49">
+        <v>-15.78</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>20</v>
+      </c>
+      <c r="L49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>-36.03</v>
+      </c>
+      <c r="H50">
+        <v>30.62</v>
+      </c>
+      <c r="I50">
+        <v>-16.97</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>20</v>
+      </c>
+      <c r="L50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>-36.15</v>
+      </c>
+      <c r="H51">
+        <v>31.93</v>
+      </c>
+      <c r="I51">
+        <v>-15.18</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>20</v>
+      </c>
+      <c r="L51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="H52">
+        <v>28.35</v>
+      </c>
+      <c r="I52">
+        <v>-15.13</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>20</v>
+      </c>
+      <c r="L52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>-34.82</v>
+      </c>
+      <c r="H53">
+        <v>28.26</v>
+      </c>
+      <c r="I53">
+        <v>-14.68</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>20</v>
+      </c>
+      <c r="L53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>-33.93</v>
+      </c>
+      <c r="H54">
+        <v>29.15</v>
+      </c>
+      <c r="I54">
+        <v>-15.56</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>20</v>
+      </c>
+      <c r="L54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>-33.78</v>
+      </c>
+      <c r="H55">
+        <v>28.83</v>
+      </c>
+      <c r="I55">
+        <v>-16.760000000000002</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>20</v>
+      </c>
+      <c r="L55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>-33.51</v>
+      </c>
+      <c r="H56">
+        <v>30.19</v>
+      </c>
+      <c r="I56">
+        <v>-15.01</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>20</v>
+      </c>
+      <c r="L56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>-34.29</v>
+      </c>
+      <c r="H57">
+        <v>26.8</v>
+      </c>
+      <c r="I57">
+        <v>-14.75</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>20</v>
+      </c>
+      <c r="L57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>-32.979999999999997</v>
+      </c>
+      <c r="H58">
+        <v>26.49</v>
+      </c>
+      <c r="I58">
+        <v>-13.98</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>20</v>
+      </c>
+      <c r="L58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>-31.85</v>
+      </c>
+      <c r="H59">
+        <v>27.54</v>
+      </c>
+      <c r="I59">
+        <v>-14.05</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>20</v>
+      </c>
+      <c r="L59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>-31.48</v>
+      </c>
+      <c r="H60">
+        <v>27.91</v>
+      </c>
+      <c r="I60">
+        <v>-15.18</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>20</v>
+      </c>
+      <c r="L60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>-31.31</v>
+      </c>
+      <c r="H61">
+        <v>27.83</v>
+      </c>
+      <c r="I61">
+        <v>-12.97</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>20</v>
+      </c>
+      <c r="L61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>-32.5</v>
+      </c>
+      <c r="H62">
+        <v>25.05</v>
+      </c>
+      <c r="I62">
+        <v>-14.32</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>20</v>
+      </c>
+      <c r="L62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>-30.97</v>
+      </c>
+      <c r="H63">
+        <v>24.86</v>
+      </c>
+      <c r="I63">
+        <v>-14.49</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>20</v>
+      </c>
+      <c r="L63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>-30.64</v>
+      </c>
+      <c r="H64">
+        <v>24.85</v>
+      </c>
+      <c r="I64">
+        <v>-16</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>20</v>
+      </c>
+      <c r="L64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>-31.02</v>
+      </c>
+      <c r="H65">
+        <v>23.86</v>
+      </c>
+      <c r="I65">
+        <v>-16.670000000000002</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>20</v>
+      </c>
+      <c r="L65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>-30.08</v>
+      </c>
+      <c r="H66">
+        <v>25.86</v>
+      </c>
+      <c r="I66">
+        <v>-16.45</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>20</v>
+      </c>
+      <c r="L66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>-30.42</v>
+      </c>
+      <c r="H67">
+        <v>23.59</v>
+      </c>
+      <c r="I67">
+        <v>-13.82</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>20</v>
+      </c>
+      <c r="L67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>-28.97</v>
+      </c>
+      <c r="H68">
+        <v>23.69</v>
+      </c>
+      <c r="I68">
+        <v>-13.27</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>20</v>
+      </c>
+      <c r="L68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>-28.33</v>
+      </c>
+      <c r="H69">
+        <v>25.09</v>
+      </c>
+      <c r="I69">
+        <v>-13.41</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>20</v>
+      </c>
+      <c r="L69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>-27.96</v>
+      </c>
+      <c r="H70">
+        <v>25.43</v>
+      </c>
+      <c r="I70">
+        <v>-14.56</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>20</v>
+      </c>
+      <c r="L70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>-28.36</v>
+      </c>
+      <c r="H71">
+        <v>25.82</v>
+      </c>
+      <c r="I71">
+        <v>-12.4</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>20</v>
+      </c>
+      <c r="L71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>-28.09</v>
+      </c>
+      <c r="H72">
+        <v>22.51</v>
+      </c>
+      <c r="I72">
+        <v>-13.76</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>20</v>
+      </c>
+      <c r="L72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>-26.59</v>
+      </c>
+      <c r="H73">
+        <v>22.58</v>
+      </c>
+      <c r="I73">
+        <v>-13.41</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>20</v>
+      </c>
+      <c r="L73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>-25.9</v>
+      </c>
+      <c r="H74">
+        <v>23.52</v>
+      </c>
+      <c r="I74">
+        <v>-14.42</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>20</v>
+      </c>
+      <c r="L74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>-25.99</v>
+      </c>
+      <c r="H75">
+        <v>23.24</v>
+      </c>
+      <c r="I75">
+        <v>-15.63</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>20</v>
+      </c>
+      <c r="L75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>-25.29</v>
+      </c>
+      <c r="H76">
+        <v>24.48</v>
+      </c>
+      <c r="I76">
+        <v>-13.91</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>20</v>
+      </c>
+      <c r="L76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>-25.9</v>
+      </c>
+      <c r="H77">
+        <v>21.19</v>
+      </c>
+      <c r="I77">
+        <v>-13.47</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>20</v>
+      </c>
+      <c r="L77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>-24.51</v>
+      </c>
+      <c r="H78">
+        <v>21.08</v>
+      </c>
+      <c r="I78">
+        <v>-12.78</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>20</v>
+      </c>
+      <c r="L78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>-23.5</v>
+      </c>
+      <c r="H79">
+        <v>22.18</v>
+      </c>
+      <c r="I79">
+        <v>-13.14</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>20</v>
+      </c>
+      <c r="L79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>-23.33</v>
+      </c>
+      <c r="H80">
+        <v>22.43</v>
+      </c>
+      <c r="I80">
+        <v>-14.35</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>20</v>
+      </c>
+      <c r="L80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>-22.81</v>
+      </c>
+      <c r="H81">
+        <v>22.63</v>
+      </c>
+      <c r="I81">
+        <v>-12.2</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>20</v>
+      </c>
+      <c r="L81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>-23.93</v>
+      </c>
+      <c r="H82">
+        <v>19.64</v>
+      </c>
+      <c r="I82">
+        <v>-12.94</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>20</v>
+      </c>
+      <c r="L82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>-22.4</v>
+      </c>
+      <c r="H83">
+        <v>19.53</v>
+      </c>
+      <c r="I83">
+        <v>-13.18</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>20</v>
+      </c>
+      <c r="L83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>-22.14</v>
+      </c>
+      <c r="H84">
+        <v>19.72</v>
+      </c>
+      <c r="I84">
+        <v>-14.69</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>20</v>
+      </c>
+      <c r="L84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>94</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>-22.69</v>
+      </c>
+      <c r="H85">
+        <v>18.93</v>
+      </c>
+      <c r="I85">
+        <v>-15.48</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>20</v>
+      </c>
+      <c r="L85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>95</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>-21.36</v>
+      </c>
+      <c r="H86">
+        <v>20.64</v>
+      </c>
+      <c r="I86">
+        <v>-14.99</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>20</v>
+      </c>
+      <c r="L86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>-21.78</v>
+      </c>
+      <c r="H87">
+        <v>18.18</v>
+      </c>
+      <c r="I87">
+        <v>-12.76</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>20</v>
+      </c>
+      <c r="L87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>-20.28</v>
+      </c>
+      <c r="H88">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="I88">
+        <v>-12.34</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>20</v>
+      </c>
+      <c r="L88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>-19.48</v>
+      </c>
+      <c r="H89">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="I89">
+        <v>-13.19</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>20</v>
+      </c>
+      <c r="L89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>-19.260000000000002</v>
+      </c>
+      <c r="H90">
+        <v>18.93</v>
+      </c>
+      <c r="I90">
+        <v>-14.38</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>20</v>
+      </c>
+      <c r="L90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>100</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>-19.170000000000002</v>
+      </c>
+      <c r="H91">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="I91">
+        <v>-12.63</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>20</v>
+      </c>
+      <c r="L91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>101</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>-19.62</v>
+      </c>
+      <c r="H92">
+        <v>16.84</v>
+      </c>
+      <c r="I92">
+        <v>-12.37</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>20</v>
+      </c>
+      <c r="L92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>102</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>-18.260000000000002</v>
+      </c>
+      <c r="H93">
+        <v>16.66</v>
+      </c>
+      <c r="I93">
+        <v>-11.65</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>20</v>
+      </c>
+      <c r="L93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>-17.21</v>
+      </c>
+      <c r="H94">
+        <v>17.77</v>
+      </c>
+      <c r="I94">
+        <v>-11.87</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>20</v>
+      </c>
+      <c r="L94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>-16.95</v>
+      </c>
+      <c r="H95">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="I95">
+        <v>-13.05</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>20</v>
+      </c>
+      <c r="L95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>105</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>-16.64</v>
+      </c>
+      <c r="H96">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="I96">
+        <v>-10.85</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>20</v>
+      </c>
+      <c r="L96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>106</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>-17.7</v>
+      </c>
+      <c r="H97">
+        <v>15.23</v>
+      </c>
+      <c r="I97">
+        <v>-11.91</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>20</v>
+      </c>
+      <c r="L97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>107</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>-16.170000000000002</v>
+      </c>
+      <c r="H98">
+        <v>15.08</v>
+      </c>
+      <c r="I98">
+        <v>-11.94</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>20</v>
+      </c>
+      <c r="L98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>108</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>-15.7</v>
+      </c>
+      <c r="H99">
+        <v>15.22</v>
+      </c>
+      <c r="I99">
+        <v>-13.41</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>20</v>
+      </c>
+      <c r="L99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>109</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>-16.03</v>
+      </c>
+      <c r="H100">
+        <v>14.33</v>
+      </c>
+      <c r="I100">
+        <v>-14.22</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>20</v>
+      </c>
+      <c r="L100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>110</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>-15.06</v>
+      </c>
+      <c r="H101">
+        <v>16.25</v>
+      </c>
+      <c r="I101">
+        <v>-13.69</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>20</v>
+      </c>
+      <c r="L101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>-15.68</v>
+      </c>
+      <c r="H102">
+        <v>13.71</v>
+      </c>
+      <c r="I102">
+        <v>-11.41</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>20</v>
+      </c>
+      <c r="L102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>112</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>-14.22</v>
+      </c>
+      <c r="H103">
+        <v>13.67</v>
+      </c>
+      <c r="I103">
+        <v>-10.86</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>20</v>
+      </c>
+      <c r="L103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>-13.41</v>
+      </c>
+      <c r="H104">
+        <v>14.97</v>
+      </c>
+      <c r="I104">
+        <v>-11</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>20</v>
+      </c>
+      <c r="L104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>114</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>-13.01</v>
+      </c>
+      <c r="H105">
+        <v>15.27</v>
+      </c>
+      <c r="I105">
+        <v>-12.15</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>20</v>
+      </c>
+      <c r="L105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>115</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>-13.33</v>
+      </c>
+      <c r="H106">
+        <v>15.68</v>
+      </c>
+      <c r="I106">
+        <v>-9.98</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>20</v>
+      </c>
+      <c r="L106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>-13.5</v>
+      </c>
+      <c r="H107">
+        <v>12.37</v>
+      </c>
+      <c r="I107">
+        <v>-11.31</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>20</v>
+      </c>
+      <c r="L107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108" t="s">
+        <v>117</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>-11.95</v>
+      </c>
+      <c r="H108">
+        <v>12.39</v>
+      </c>
+      <c r="I108">
+        <v>-11.26</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>20</v>
+      </c>
+      <c r="L108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
+      <c r="C109" t="s">
+        <v>118</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>-11.46</v>
+      </c>
+      <c r="H109">
+        <v>12.88</v>
+      </c>
+      <c r="I109">
+        <v>-12.64</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>20</v>
+      </c>
+      <c r="L109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>119</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>-11.78</v>
+      </c>
+      <c r="H110">
+        <v>12.22</v>
+      </c>
+      <c r="I110">
+        <v>-13.65</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>20</v>
+      </c>
+      <c r="L110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>120</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>-10.73</v>
+      </c>
+      <c r="H111">
+        <v>13.9</v>
+      </c>
+      <c r="I111">
+        <v>-12.63</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>20</v>
+      </c>
+      <c r="L111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
+      <c r="C112" t="s">
+        <v>121</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>-11.34</v>
+      </c>
+      <c r="H112">
+        <v>10.99</v>
+      </c>
+      <c r="I112">
+        <v>-11.02</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>20</v>
+      </c>
+      <c r="L112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
+      <c r="C113" t="s">
+        <v>122</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>-9.92</v>
+      </c>
+      <c r="H113">
+        <v>10.96</v>
+      </c>
+      <c r="I113">
+        <v>-10.4</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>20</v>
+      </c>
+      <c r="L113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
+      <c r="C114" t="s">
+        <v>123</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>-9.06</v>
+      </c>
+      <c r="H114">
+        <v>12.23</v>
+      </c>
+      <c r="I114">
+        <v>-10.61</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>20</v>
+      </c>
+      <c r="L114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>124</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>-8.64</v>
+      </c>
+      <c r="H115">
+        <v>12.44</v>
+      </c>
+      <c r="I115">
+        <v>-11.76</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>20</v>
+      </c>
+      <c r="L115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>125</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>-8.99</v>
+      </c>
+      <c r="H116">
+        <v>13.01</v>
+      </c>
+      <c r="I116">
+        <v>-9.64</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>20</v>
+      </c>
+      <c r="L116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
+      <c r="C117" t="s">
+        <v>126</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>-9.2100000000000009</v>
+      </c>
+      <c r="H117">
+        <v>9.61</v>
+      </c>
+      <c r="I117">
+        <v>-10.71</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>20</v>
+      </c>
+      <c r="L117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>127</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>-7.67</v>
+      </c>
+      <c r="H118">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="I118">
+        <v>-10.87</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>20</v>
+      </c>
+      <c r="L118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
+      <c r="C119" t="s">
+        <v>128</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>-7.35</v>
+      </c>
+      <c r="H119">
+        <v>10.02</v>
+      </c>
+      <c r="I119">
+        <v>-12.33</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>20</v>
+      </c>
+      <c r="L119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
+      <c r="C120" t="s">
+        <v>129</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>-7.9</v>
+      </c>
+      <c r="H120">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="I120">
+        <v>-13.25</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>20</v>
+      </c>
+      <c r="L120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
+      <c r="C121" t="s">
+        <v>130</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>-6.47</v>
+      </c>
+      <c r="H121">
+        <v>10.89</v>
+      </c>
+      <c r="I121">
+        <v>-12.47</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>20</v>
+      </c>
+      <c r="L121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
+      <c r="C122" t="s">
+        <v>131</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>-7.05</v>
+      </c>
+      <c r="H122">
+        <v>8.24</v>
+      </c>
+      <c r="I122">
+        <v>-10.59</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>20</v>
+      </c>
+      <c r="L122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
+      <c r="C123" t="s">
+        <v>132</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>-5.54</v>
+      </c>
+      <c r="H123">
+        <v>8.25</v>
+      </c>
+      <c r="I123">
+        <v>-10.220000000000001</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>20</v>
+      </c>
+      <c r="L123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>-4.7</v>
+      </c>
+      <c r="H124">
+        <v>9.02</v>
+      </c>
+      <c r="I124">
+        <v>-11.26</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>20</v>
+      </c>
+      <c r="L124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
+      <c r="C125" t="s">
+        <v>134</v>
+      </c>
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="H125">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="I125">
+        <v>-12.4</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>20</v>
+      </c>
+      <c r="L125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>135</v>
+      </c>
+      <c r="D126" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>-4.24</v>
+      </c>
+      <c r="H126">
+        <v>10.11</v>
+      </c>
+      <c r="I126">
+        <v>-10.86</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>20</v>
+      </c>
+      <c r="L126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
+      <c r="C127" t="s">
+        <v>136</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>-4.97</v>
+      </c>
+      <c r="H127">
+        <v>6.81</v>
+      </c>
+      <c r="I127">
+        <v>-10.09</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>20</v>
+      </c>
+      <c r="L127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
+      <c r="C128" t="s">
+        <v>137</v>
+      </c>
+      <c r="D128" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>-3.64</v>
+      </c>
+      <c r="H128">
+        <v>6.65</v>
+      </c>
+      <c r="I128">
+        <v>-9.32</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>20</v>
+      </c>
+      <c r="L128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>138</v>
+      </c>
+      <c r="D129" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>-2.7</v>
+      </c>
+      <c r="H129">
+        <v>7.87</v>
+      </c>
+      <c r="I129">
+        <v>-9.26</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>20</v>
+      </c>
+      <c r="L129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
+      <c r="C130" t="s">
+        <v>139</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>-2.14</v>
+      </c>
+      <c r="H130">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="I130">
+        <v>-10.32</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>20</v>
+      </c>
+      <c r="L130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
+      <c r="C131" t="s">
+        <v>140</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>-2.7</v>
+      </c>
+      <c r="H131">
+        <v>8.51</v>
+      </c>
+      <c r="I131">
+        <v>-8.19</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>20</v>
+      </c>
+      <c r="L131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
+      <c r="C132" t="s">
+        <v>141</v>
+      </c>
+      <c r="D132" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>-2.96</v>
+      </c>
+      <c r="H132">
+        <v>5.3</v>
+      </c>
+      <c r="I132">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>20</v>
+      </c>
+      <c r="L132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>142</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>-1.43</v>
+      </c>
+      <c r="H133">
+        <v>5.33</v>
+      </c>
+      <c r="I133">
+        <v>-9.89</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>20</v>
+      </c>
+      <c r="L133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>143</v>
+      </c>
+      <c r="D134" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="H134">
+        <v>5.7</v>
+      </c>
+      <c r="I134">
+        <v>-11.35</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>20</v>
+      </c>
+      <c r="L134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
+      <c r="C135" t="s">
+        <v>144</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>-1.66</v>
+      </c>
+      <c r="H135">
+        <v>5.04</v>
+      </c>
+      <c r="I135">
+        <v>-12.26</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>20</v>
+      </c>
+      <c r="L135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>145</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>-0.23</v>
+      </c>
+      <c r="H136">
+        <v>6.57</v>
+      </c>
+      <c r="I136">
+        <v>-11.52</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>20</v>
+      </c>
+      <c r="L136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="C137" t="s">
+        <v>146</v>
+      </c>
+      <c r="D137" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>-0.79</v>
+      </c>
+      <c r="H137">
+        <v>3.95</v>
+      </c>
+      <c r="I137">
+        <v>-9.61</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>20</v>
+      </c>
+      <c r="L137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+      <c r="C138" t="s">
+        <v>147</v>
+      </c>
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>0.67</v>
+      </c>
+      <c r="H138">
+        <v>3.98</v>
+      </c>
+      <c r="I138">
+        <v>-9.09</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>20</v>
+      </c>
+      <c r="L138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139" t="s">
+        <v>148</v>
+      </c>
+      <c r="D139" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>1.52</v>
+      </c>
+      <c r="H139">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I139">
+        <v>-9.68</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>20</v>
+      </c>
+      <c r="L139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>149</v>
+      </c>
+      <c r="D140" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>1.95</v>
+      </c>
+      <c r="H140">
+        <v>4.96</v>
+      </c>
+      <c r="I140">
+        <v>-10.84</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>20</v>
+      </c>
+      <c r="L140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>150</v>
+      </c>
+      <c r="D141" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>1.63</v>
+      </c>
+      <c r="H141">
+        <v>6.14</v>
+      </c>
+      <c r="I141">
+        <v>-8.9700000000000006</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>20</v>
+      </c>
+      <c r="L141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
+      <c r="C142" t="s">
+        <v>151</v>
+      </c>
+      <c r="D142" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>1.29</v>
+      </c>
+      <c r="H142">
+        <v>2.58</v>
+      </c>
+      <c r="I142">
+        <v>-9.2799999999999994</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>20</v>
+      </c>
+      <c r="L142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>152</v>
+      </c>
+      <c r="D143" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>2.72</v>
+      </c>
+      <c r="H143">
+        <v>2.38</v>
+      </c>
+      <c r="I143">
+        <v>-8.74</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>20</v>
+      </c>
+      <c r="L143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>153</v>
+      </c>
+      <c r="D144" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>3.76</v>
+      </c>
+      <c r="H144">
+        <v>3</v>
+      </c>
+      <c r="I144">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>20</v>
+      </c>
+      <c r="L144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
+      <c r="C145" t="s">
+        <v>154</v>
+      </c>
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>4.01</v>
+      </c>
+      <c r="H145">
+        <v>2.39</v>
+      </c>
+      <c r="I145">
+        <v>-10.77</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>20</v>
+      </c>
+      <c r="L145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>155</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>4.25</v>
+      </c>
+      <c r="H146">
+        <v>4.09</v>
+      </c>
+      <c r="I146">
+        <v>-9.35</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>20</v>
+      </c>
+      <c r="L146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147" t="s">
+        <v>156</v>
+      </c>
+      <c r="D147" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>2.98</v>
+      </c>
+      <c r="H147">
+        <v>0.87</v>
+      </c>
+      <c r="I147">
+        <v>-8.56</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>20</v>
+      </c>
+      <c r="L147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>157</v>
+      </c>
+      <c r="D148" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>4.21</v>
+      </c>
+      <c r="H148">
+        <v>0.52</v>
+      </c>
+      <c r="I148">
+        <v>-7.71</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>20</v>
+      </c>
+      <c r="L148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>158</v>
+      </c>
+      <c r="D149" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>5.54</v>
+      </c>
+      <c r="H149">
+        <v>0.84</v>
+      </c>
+      <c r="I149">
+        <v>-8.39</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>20</v>
+      </c>
+      <c r="L149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+      <c r="C150" t="s">
+        <v>159</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>5.98</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>-9.2100000000000009</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>20</v>
+      </c>
+      <c r="L150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+      <c r="C151" t="s">
+        <v>160</v>
+      </c>
+      <c r="D151" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>6.05</v>
+      </c>
+      <c r="H151">
+        <v>1.95</v>
+      </c>
+      <c r="I151">
+        <v>-8.14</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>20</v>
+      </c>
+      <c r="L151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:C151"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>